--- a/login.xlsx
+++ b/login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nares\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nares\git\nareshTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A10AFC4-F756-4F22-978E-FDC0A8F64E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{421DEACB-954D-4512-BF06-4BFB6BFE9A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,10 @@
     <t>Username</t>
   </si>
   <si>
-    <t>inspector@3diemail.com</t>
+    <t>Demo1234</t>
   </si>
   <si>
-    <t>Demo1234</t>
+    <t>fireadmin@3diemail.com</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -387,10 +387,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
